--- a/参考/th_OS停止対象.xlsx
+++ b/参考/th_OS停止対象.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bcz048452\GitHub\test_term\参考\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{508AFEF1-05AA-4689-B561-41936B088470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CBE91F6-5C78-4B83-814B-6E8B7456654D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C2679271-320B-4F72-AC24-ABB031E8F234}"/>
+    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="10360" xr2:uid="{C2679271-320B-4F72-AC24-ABB031E8F234}"/>
   </bookViews>
   <sheets>
     <sheet name="チェックリスト" sheetId="1" r:id="rId1"/>
@@ -1612,7 +1612,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1760,6 +1760,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1769,19 +1778,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2101,10 +2107,10 @@
   <sheetPr codeName="Sheet1" filterMode="1"/>
   <dimension ref="A1:AA58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="AA10" sqref="AA10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2133,6 +2139,7 @@
     <col min="23" max="23" width="16.08203125" customWidth="1"/>
     <col min="24" max="24" width="11.4140625" customWidth="1"/>
     <col min="25" max="25" width="10" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="30" x14ac:dyDescent="0.55000000000000004">
@@ -2834,8 +2841,12 @@
       <c r="Y10" s="46">
         <v>45393</v>
       </c>
-      <c r="Z10" s="48"/>
-      <c r="AA10" s="48"/>
+      <c r="Z10" s="57">
+        <v>0.5756944444444444</v>
+      </c>
+      <c r="AA10" s="58">
+        <v>45393</v>
+      </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="9" t="s">
@@ -2913,8 +2924,12 @@
       <c r="Y11" s="46">
         <v>45393</v>
       </c>
-      <c r="Z11" s="48"/>
-      <c r="AA11" s="48"/>
+      <c r="Z11" s="57">
+        <v>0.5756944444444444</v>
+      </c>
+      <c r="AA11" s="58">
+        <v>45393</v>
+      </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="9" t="s">
@@ -2992,8 +3007,12 @@
       <c r="Y12" s="46">
         <v>45393</v>
       </c>
-      <c r="Z12" s="48"/>
-      <c r="AA12" s="48"/>
+      <c r="Z12" s="57">
+        <v>0.5756944444444444</v>
+      </c>
+      <c r="AA12" s="58">
+        <v>45393</v>
+      </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="9" t="s">
@@ -3071,8 +3090,12 @@
       <c r="Y13" s="46">
         <v>45393</v>
       </c>
-      <c r="Z13" s="48"/>
-      <c r="AA13" s="48"/>
+      <c r="Z13" s="57">
+        <v>0.5756944444444444</v>
+      </c>
+      <c r="AA13" s="58">
+        <v>45393</v>
+      </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="9" t="s">
@@ -3150,8 +3173,12 @@
       <c r="Y14" s="46">
         <v>45393</v>
       </c>
-      <c r="Z14" s="48"/>
-      <c r="AA14" s="48"/>
+      <c r="Z14" s="57">
+        <v>0.5756944444444444</v>
+      </c>
+      <c r="AA14" s="58">
+        <v>45393</v>
+      </c>
     </row>
     <row r="15" spans="1:27" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="28" t="s">
@@ -3312,8 +3339,12 @@
       <c r="Y16" s="46">
         <v>45393</v>
       </c>
-      <c r="Z16" s="48"/>
-      <c r="AA16" s="48"/>
+      <c r="Z16" s="57">
+        <v>0.5756944444444444</v>
+      </c>
+      <c r="AA16" s="58">
+        <v>45393</v>
+      </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="9" t="s">
@@ -3391,8 +3422,12 @@
       <c r="Y17" s="46">
         <v>45393</v>
       </c>
-      <c r="Z17" s="48"/>
-      <c r="AA17" s="48"/>
+      <c r="Z17" s="57">
+        <v>0.5756944444444444</v>
+      </c>
+      <c r="AA17" s="58">
+        <v>45393</v>
+      </c>
     </row>
     <row r="18" spans="1:27" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="28" t="s">
@@ -3647,8 +3682,12 @@
       <c r="Y21" s="46">
         <v>45393</v>
       </c>
-      <c r="Z21" s="48"/>
-      <c r="AA21" s="48"/>
+      <c r="Z21" s="57">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="AA21" s="58">
+        <v>45393</v>
+      </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="9" t="s">
@@ -3726,8 +3765,12 @@
       <c r="Y22" s="46">
         <v>45393</v>
       </c>
-      <c r="Z22" s="48"/>
-      <c r="AA22" s="48"/>
+      <c r="Z22" s="57">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="AA22" s="58">
+        <v>45393</v>
+      </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="9" t="s">
@@ -3805,8 +3848,12 @@
       <c r="Y23" s="46">
         <v>45393</v>
       </c>
-      <c r="Z23" s="48"/>
-      <c r="AA23" s="48"/>
+      <c r="Z23" s="57">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="AA23" s="58">
+        <v>45393</v>
+      </c>
     </row>
     <row r="24" spans="1:27" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="9" t="s">
@@ -4115,8 +4162,12 @@
       <c r="Y29" s="46">
         <v>45393</v>
       </c>
-      <c r="Z29" s="48"/>
-      <c r="AA29" s="48"/>
+      <c r="Z29" s="57">
+        <v>0.57777777777777783</v>
+      </c>
+      <c r="AA29" s="58">
+        <v>45393</v>
+      </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="9" t="s">
@@ -4190,8 +4241,12 @@
       <c r="Y30" s="46">
         <v>45393</v>
       </c>
-      <c r="Z30" s="48"/>
-      <c r="AA30" s="48"/>
+      <c r="Z30" s="57">
+        <v>0.57777777777777783</v>
+      </c>
+      <c r="AA30" s="58">
+        <v>45393</v>
+      </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="9" t="s">
@@ -4265,8 +4320,12 @@
       <c r="Y31" s="46">
         <v>45393</v>
       </c>
-      <c r="Z31" s="48"/>
-      <c r="AA31" s="48"/>
+      <c r="Z31" s="57">
+        <v>0.57777777777777783</v>
+      </c>
+      <c r="AA31" s="58">
+        <v>45393</v>
+      </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="9" t="s">
@@ -4340,8 +4399,12 @@
       <c r="Y32" s="46">
         <v>45393</v>
       </c>
-      <c r="Z32" s="48"/>
-      <c r="AA32" s="48"/>
+      <c r="Z32" s="57">
+        <v>0.57777777777777783</v>
+      </c>
+      <c r="AA32" s="58">
+        <v>45393</v>
+      </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="9" t="s">
@@ -4415,8 +4478,12 @@
       <c r="Y33" s="46">
         <v>45393</v>
       </c>
-      <c r="Z33" s="48"/>
-      <c r="AA33" s="48"/>
+      <c r="Z33" s="57">
+        <v>0.57777777777777783</v>
+      </c>
+      <c r="AA33" s="58">
+        <v>45393</v>
+      </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="9" t="s">
@@ -4490,8 +4557,12 @@
       <c r="Y34" s="46">
         <v>45393</v>
       </c>
-      <c r="Z34" s="48"/>
-      <c r="AA34" s="48"/>
+      <c r="Z34" s="57">
+        <v>0.57777777777777783</v>
+      </c>
+      <c r="AA34" s="58">
+        <v>45393</v>
+      </c>
     </row>
     <row r="35" spans="1:27" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="28" t="s">
@@ -5238,8 +5309,12 @@
       <c r="Y44" s="46">
         <v>45393</v>
       </c>
-      <c r="Z44" s="48"/>
-      <c r="AA44" s="48"/>
+      <c r="Z44" s="57">
+        <v>0.57430555555555551</v>
+      </c>
+      <c r="AA44" s="58">
+        <v>45393</v>
+      </c>
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="9" t="s">
@@ -5317,8 +5392,12 @@
       <c r="Y45" s="46">
         <v>45393</v>
       </c>
-      <c r="Z45" s="48"/>
-      <c r="AA45" s="48"/>
+      <c r="Z45" s="57">
+        <v>0.57430555555555551</v>
+      </c>
+      <c r="AA45" s="58">
+        <v>45393</v>
+      </c>
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="9" t="s">
@@ -5396,8 +5475,12 @@
       <c r="Y46" s="46">
         <v>45393</v>
       </c>
-      <c r="Z46" s="48"/>
-      <c r="AA46" s="48"/>
+      <c r="Z46" s="57">
+        <v>0.57430555555555551</v>
+      </c>
+      <c r="AA46" s="58">
+        <v>45393</v>
+      </c>
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="9" t="s">
@@ -5475,8 +5558,12 @@
       <c r="Y47" s="46">
         <v>45393</v>
       </c>
-      <c r="Z47" s="48"/>
-      <c r="AA47" s="48"/>
+      <c r="Z47" s="57">
+        <v>0.57430555555555551</v>
+      </c>
+      <c r="AA47" s="58">
+        <v>45393</v>
+      </c>
     </row>
     <row r="48" spans="1:27" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="28" t="s">
@@ -5637,8 +5724,12 @@
       <c r="Y49" s="46">
         <v>45393</v>
       </c>
-      <c r="Z49" s="48"/>
-      <c r="AA49" s="48"/>
+      <c r="Z49" s="57">
+        <v>0.57430555555555551</v>
+      </c>
+      <c r="AA49" s="58">
+        <v>45393</v>
+      </c>
     </row>
     <row r="50" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="9" t="s">
@@ -5716,8 +5807,12 @@
       <c r="Y50" s="46">
         <v>45393</v>
       </c>
-      <c r="Z50" s="48"/>
-      <c r="AA50" s="48"/>
+      <c r="Z50" s="57">
+        <v>0.57430555555555551</v>
+      </c>
+      <c r="AA50" s="58">
+        <v>45393</v>
+      </c>
     </row>
     <row r="51" spans="1:27" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="28" t="s">
@@ -6165,16 +6260,16 @@
       <c r="A5" s="7"/>
       <c r="B5" s="10"/>
       <c r="C5" s="8"/>
-      <c r="D5" s="51" t="s">
+      <c r="D5" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="51" t="s">
+      <c r="E5" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="51" t="s">
+      <c r="F5" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="51" t="s">
+      <c r="G5" s="54" t="s">
         <v>18</v>
       </c>
       <c r="H5" s="8" t="s">
@@ -6205,10 +6300,10 @@
       <c r="A6" s="7"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
       <c r="H6" s="10" t="s">
         <v>31</v>
       </c>
@@ -6231,10 +6326,10 @@
       <c r="A7" s="7"/>
       <c r="B7" s="10"/>
       <c r="C7" s="11"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
       <c r="H7" s="11" t="s">
         <v>33</v>
       </c>
@@ -6283,7 +6378,7 @@
       <c r="A9" s="7"/>
       <c r="B9" s="10"/>
       <c r="C9" s="8"/>
-      <c r="D9" s="51" t="s">
+      <c r="D9" s="54" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="14"/>
@@ -6309,7 +6404,7 @@
       <c r="A10" s="7"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
-      <c r="D10" s="52"/>
+      <c r="D10" s="56"/>
       <c r="E10" s="15"/>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
@@ -6331,7 +6426,7 @@
       <c r="A11" s="7"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
-      <c r="D11" s="53"/>
+      <c r="D11" s="55"/>
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
@@ -6643,16 +6738,16 @@
       <c r="A20" s="7"/>
       <c r="B20" s="10"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="49" t="s">
+      <c r="D20" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="E20" s="51" t="s">
+      <c r="E20" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="51" t="s">
+      <c r="F20" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="G20" s="51" t="s">
+      <c r="G20" s="54" t="s">
         <v>18</v>
       </c>
       <c r="H20" s="8" t="s">
@@ -6683,10 +6778,10 @@
       <c r="A21" s="7"/>
       <c r="B21" s="10"/>
       <c r="C21" s="11"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="52"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
       <c r="H21" s="11" t="s">
         <v>75</v>
       </c>
@@ -6735,7 +6830,7 @@
       <c r="A23" s="7"/>
       <c r="B23" s="10"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="49" t="s">
+      <c r="D23" s="52" t="s">
         <v>78</v>
       </c>
       <c r="E23" s="14"/>
@@ -6761,7 +6856,7 @@
       <c r="A24" s="7"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
-      <c r="D24" s="50"/>
+      <c r="D24" s="53"/>
       <c r="E24" s="16"/>
       <c r="F24" s="16"/>
       <c r="G24" s="16"/>
@@ -6921,13 +7016,13 @@
       <c r="K28" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="L28" s="51" t="s">
+      <c r="L28" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="M28" s="51" t="s">
+      <c r="M28" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="N28" s="51" t="s">
+      <c r="N28" s="54" t="s">
         <v>25</v>
       </c>
       <c r="O28" s="1"/>
@@ -6957,9 +7052,9 @@
       <c r="K29" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="L29" s="53"/>
-      <c r="M29" s="53"/>
-      <c r="N29" s="53"/>
+      <c r="L29" s="55"/>
+      <c r="M29" s="55"/>
+      <c r="N29" s="55"/>
       <c r="O29" s="20" t="s">
         <v>101</v>
       </c>
@@ -6993,13 +7088,13 @@
       <c r="K30" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="L30" s="51" t="s">
+      <c r="L30" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="M30" s="51" t="s">
+      <c r="M30" s="54" t="s">
         <v>105</v>
       </c>
-      <c r="N30" s="51" t="s">
+      <c r="N30" s="54" t="s">
         <v>25</v>
       </c>
       <c r="O30" s="1"/>
@@ -7029,9 +7124,9 @@
       <c r="K31" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="L31" s="53"/>
-      <c r="M31" s="53"/>
-      <c r="N31" s="53"/>
+      <c r="L31" s="55"/>
+      <c r="M31" s="55"/>
+      <c r="N31" s="55"/>
       <c r="O31" s="20" t="s">
         <v>108</v>
       </c>
@@ -7067,7 +7162,7 @@
       <c r="A33" s="7"/>
       <c r="B33" s="10"/>
       <c r="C33" s="8"/>
-      <c r="D33" s="49" t="s">
+      <c r="D33" s="52" t="s">
         <v>78</v>
       </c>
       <c r="E33" s="14"/>
@@ -7093,7 +7188,7 @@
       <c r="A34" s="7"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
-      <c r="D34" s="50"/>
+      <c r="D34" s="53"/>
       <c r="E34" s="16"/>
       <c r="F34" s="16"/>
       <c r="G34" s="16"/>
@@ -7143,13 +7238,13 @@
       <c r="K35" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="L35" s="51" t="s">
+      <c r="L35" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="M35" s="51" t="s">
+      <c r="M35" s="54" t="s">
         <v>117</v>
       </c>
-      <c r="N35" s="51" t="s">
+      <c r="N35" s="54" t="s">
         <v>25</v>
       </c>
       <c r="O35" s="1"/>
@@ -7179,9 +7274,9 @@
       <c r="K36" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="L36" s="53"/>
-      <c r="M36" s="53"/>
-      <c r="N36" s="53"/>
+      <c r="L36" s="55"/>
+      <c r="M36" s="55"/>
+      <c r="N36" s="55"/>
       <c r="O36" s="20" t="s">
         <v>120</v>
       </c>
@@ -7215,13 +7310,13 @@
       <c r="K37" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="L37" s="51" t="s">
+      <c r="L37" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="M37" s="51" t="s">
+      <c r="M37" s="54" t="s">
         <v>124</v>
       </c>
-      <c r="N37" s="51" t="s">
+      <c r="N37" s="54" t="s">
         <v>25</v>
       </c>
       <c r="O37" s="1"/>
@@ -7251,9 +7346,9 @@
       <c r="K38" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="L38" s="52"/>
-      <c r="M38" s="52"/>
-      <c r="N38" s="52"/>
+      <c r="L38" s="56"/>
+      <c r="M38" s="56"/>
+      <c r="N38" s="56"/>
       <c r="O38" s="20" t="s">
         <v>127</v>
       </c>
@@ -7321,10 +7416,10 @@
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
-      <c r="J41" s="54"/>
-      <c r="K41" s="54"/>
-      <c r="L41" s="54"/>
-      <c r="M41" s="54"/>
+      <c r="J41" s="51"/>
+      <c r="K41" s="51"/>
+      <c r="L41" s="51"/>
+      <c r="M41" s="51"/>
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
@@ -7339,10 +7434,10 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
-      <c r="J42" s="55"/>
-      <c r="K42" s="55"/>
-      <c r="L42" s="55"/>
-      <c r="M42" s="55"/>
+      <c r="J42" s="49"/>
+      <c r="K42" s="49"/>
+      <c r="L42" s="49"/>
+      <c r="M42" s="49"/>
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
@@ -7357,10 +7452,10 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
-      <c r="J43" s="55"/>
-      <c r="K43" s="55"/>
-      <c r="L43" s="55"/>
-      <c r="M43" s="55"/>
+      <c r="J43" s="49"/>
+      <c r="K43" s="49"/>
+      <c r="L43" s="49"/>
+      <c r="M43" s="49"/>
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
@@ -7375,10 +7470,10 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
-      <c r="J44" s="55"/>
-      <c r="K44" s="55"/>
-      <c r="L44" s="55"/>
-      <c r="M44" s="55"/>
+      <c r="J44" s="49"/>
+      <c r="K44" s="49"/>
+      <c r="L44" s="49"/>
+      <c r="M44" s="49"/>
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
@@ -7395,10 +7490,10 @@
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
-      <c r="J45" s="56"/>
-      <c r="K45" s="56"/>
-      <c r="L45" s="56"/>
-      <c r="M45" s="56"/>
+      <c r="J45" s="50"/>
+      <c r="K45" s="50"/>
+      <c r="L45" s="50"/>
+      <c r="M45" s="50"/>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
@@ -7793,10 +7888,10 @@
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
-      <c r="J60" s="54"/>
-      <c r="K60" s="54"/>
-      <c r="L60" s="54"/>
-      <c r="M60" s="54"/>
+      <c r="J60" s="51"/>
+      <c r="K60" s="51"/>
+      <c r="L60" s="51"/>
+      <c r="M60" s="51"/>
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
       <c r="P60" s="1"/>
@@ -7811,10 +7906,10 @@
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
-      <c r="J61" s="55"/>
-      <c r="K61" s="55"/>
-      <c r="L61" s="55"/>
-      <c r="M61" s="55"/>
+      <c r="J61" s="49"/>
+      <c r="K61" s="49"/>
+      <c r="L61" s="49"/>
+      <c r="M61" s="49"/>
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
       <c r="P61" s="1"/>
@@ -7829,10 +7924,10 @@
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
-      <c r="J62" s="55"/>
-      <c r="K62" s="55"/>
-      <c r="L62" s="55"/>
-      <c r="M62" s="55"/>
+      <c r="J62" s="49"/>
+      <c r="K62" s="49"/>
+      <c r="L62" s="49"/>
+      <c r="M62" s="49"/>
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
       <c r="P62" s="1"/>
@@ -7847,10 +7942,10 @@
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
-      <c r="J63" s="55"/>
-      <c r="K63" s="55"/>
-      <c r="L63" s="55"/>
-      <c r="M63" s="55"/>
+      <c r="J63" s="49"/>
+      <c r="K63" s="49"/>
+      <c r="L63" s="49"/>
+      <c r="M63" s="49"/>
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
       <c r="P63" s="1"/>
@@ -7865,10 +7960,10 @@
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
-      <c r="J64" s="55"/>
-      <c r="K64" s="55"/>
-      <c r="L64" s="55"/>
-      <c r="M64" s="55"/>
+      <c r="J64" s="49"/>
+      <c r="K64" s="49"/>
+      <c r="L64" s="49"/>
+      <c r="M64" s="49"/>
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
       <c r="P64" s="1"/>
@@ -7883,10 +7978,10 @@
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
-      <c r="J65" s="55"/>
-      <c r="K65" s="55"/>
-      <c r="L65" s="55"/>
-      <c r="M65" s="55"/>
+      <c r="J65" s="49"/>
+      <c r="K65" s="49"/>
+      <c r="L65" s="49"/>
+      <c r="M65" s="49"/>
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
       <c r="P65" s="1"/>
@@ -7901,54 +7996,16 @@
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
-      <c r="J66" s="55"/>
-      <c r="K66" s="55"/>
-      <c r="L66" s="55"/>
-      <c r="M66" s="55"/>
+      <c r="J66" s="49"/>
+      <c r="K66" s="49"/>
+      <c r="L66" s="49"/>
+      <c r="M66" s="49"/>
       <c r="N66" s="1"/>
       <c r="O66" s="1"/>
       <c r="P66" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="L64:M64"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="L65:M65"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="L66:M66"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="L61:M61"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="L62:M62"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="L63:M63"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="L60:M60"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="L35:L36"/>
-    <mergeCell ref="M35:M36"/>
-    <mergeCell ref="N35:N36"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="M37:M38"/>
-    <mergeCell ref="N37:N38"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="M28:M29"/>
-    <mergeCell ref="N28:N29"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="M30:M31"/>
-    <mergeCell ref="N30:N31"/>
     <mergeCell ref="D20:D21"/>
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="F20:F21"/>
@@ -7958,6 +8015,44 @@
     <mergeCell ref="F5:F7"/>
     <mergeCell ref="G5:G7"/>
     <mergeCell ref="D9:D11"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="N28:N29"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="N30:N31"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="L35:L36"/>
+    <mergeCell ref="M35:M36"/>
+    <mergeCell ref="N35:N36"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="N37:N38"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="L66:M66"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8379,26 +8474,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="faafecf9-2384-438a-96ed-23e5068ab542">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="a6eee56a-b771-4337-9a0d-bca407c3e39f" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101009B1261F579BEB14D8113C711BDA211BE" ma:contentTypeVersion="13" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="3c75d4d8b68e8f39bcbe175dc498e2ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="faafecf9-2384-438a-96ed-23e5068ab542" xmlns:ns3="a6eee56a-b771-4337-9a0d-bca407c3e39f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6805c2f186df627e794fe1b12a57ea94" ns2:_="" ns3:_="">
     <xsd:import namespace="faafecf9-2384-438a-96ed-23e5068ab542"/>
@@ -8621,32 +8696,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2225D071-9E78-4A0A-BB55-AA8C5B263D49}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="faafecf9-2384-438a-96ed-23e5068ab542"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a6eee56a-b771-4337-9a0d-bca407c3e39f"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC7420A6-A23A-4A41-98CD-CEBBC1851954}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="faafecf9-2384-438a-96ed-23e5068ab542">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="a6eee56a-b771-4337-9a0d-bca407c3e39f" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BCA9602-E84D-46E4-A245-09579BA8A8EE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8663,4 +8733,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC7420A6-A23A-4A41-98CD-CEBBC1851954}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2225D071-9E78-4A0A-BB55-AA8C5B263D49}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="faafecf9-2384-438a-96ed-23e5068ab542"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a6eee56a-b771-4337-9a0d-bca407c3e39f"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>